--- a/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-WaiveInterest.xlsx
+++ b/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-WaiveInterest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>clickonmorebutton</t>
   </si>
@@ -196,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +241,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -322,6 +329,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -700,7 +708,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +753,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>583.08000000000004</v>
+        <v>583.15</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -757,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <v>532.07000000000005</v>
+        <v>532.14</v>
       </c>
       <c r="F3" s="12">
         <v>217.95</v>
@@ -1160,7 +1168,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,13 +1361,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12">
-        <v>835.73</v>
+        <v>835.72</v>
       </c>
       <c r="G5" s="13">
-        <v>2489.66</v>
+        <v>2489.67</v>
       </c>
       <c r="H5" s="12">
-        <v>51.99</v>
+        <v>52</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1429,13 +1437,13 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12">
-        <v>828.6</v>
+        <v>828.54</v>
       </c>
       <c r="G7" s="13">
-        <v>6661.06</v>
+        <v>6661.13</v>
       </c>
       <c r="H7" s="12">
-        <v>59.12</v>
+        <v>59.18</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -1479,7 +1487,7 @@
         <v>793.54</v>
       </c>
       <c r="G8" s="13">
-        <v>5867.52</v>
+        <v>5867.59</v>
       </c>
       <c r="H8" s="12">
         <v>94.18</v>
@@ -1526,7 +1534,7 @@
         <v>788.57</v>
       </c>
       <c r="G9" s="13">
-        <v>5078.95</v>
+        <v>5079.0200000000004</v>
       </c>
       <c r="H9" s="12">
         <v>99.15</v>
@@ -1573,7 +1581,7 @@
         <v>837.63</v>
       </c>
       <c r="G10" s="13">
-        <v>4241.32</v>
+        <v>4241.3900000000003</v>
       </c>
       <c r="H10" s="12">
         <v>50.09</v>
@@ -1620,7 +1628,7 @@
         <v>844.5</v>
       </c>
       <c r="G11" s="13">
-        <v>3396.82</v>
+        <v>3396.89</v>
       </c>
       <c r="H11" s="12">
         <v>43.22</v>
@@ -1667,7 +1675,7 @@
         <v>854.22</v>
       </c>
       <c r="G12" s="13">
-        <v>2542.6</v>
+        <v>2542.67</v>
       </c>
       <c r="H12" s="12">
         <v>33.5</v>
@@ -1714,7 +1722,7 @@
         <v>861.82</v>
       </c>
       <c r="G13" s="13">
-        <v>1680.78</v>
+        <v>1680.85</v>
       </c>
       <c r="H13" s="12">
         <v>25.9</v>
@@ -1761,7 +1769,7 @@
         <v>870.6</v>
       </c>
       <c r="G14" s="12">
-        <v>810.18</v>
+        <v>810.25</v>
       </c>
       <c r="H14" s="12">
         <v>17.12</v>
@@ -1805,7 +1813,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12">
-        <v>810.18</v>
+        <v>810.25</v>
       </c>
       <c r="G15" s="12">
         <v>0</v>
@@ -1820,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="12">
-        <v>818.16</v>
+        <v>818.23</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
@@ -1836,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="12">
-        <v>818.16</v>
+        <v>818.23</v>
       </c>
     </row>
   </sheetData>
@@ -1846,13 +1854,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -1880,7 +1891,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>421</v>
+        <v>83</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -1889,22 +1900,22 @@
         <v>42094</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="12">
-        <v>104.84</v>
+        <v>132.02000000000001</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="12">
-        <v>0</v>
+      <c r="J2" s="13">
+        <v>10418.67</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>34</v>
@@ -1913,70 +1924,70 @@
         <v>42094</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="12">
-        <v>104.84</v>
+        <v>27.18</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="13">
-        <v>10391.42</v>
+      <c r="J3" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="14">
-        <v>42064</v>
+        <v>42094</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12">
-        <v>51.01</v>
+        <v>104.84</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="13">
-        <v>10286.58</v>
+      <c r="J4" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="14">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="12">
-        <v>116.71</v>
+        <v>51.01</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13">
-        <v>10337.59</v>
+        <v>10286.65</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>34</v>
@@ -1985,22 +1996,22 @@
         <v>42063</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="12">
-        <v>22.62</v>
+        <v>116.71</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="12">
-        <v>0</v>
+      <c r="J6" s="13">
+        <v>10337.66</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>34</v>
@@ -2012,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="12">
-        <v>94.09</v>
+        <v>22.62</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -2024,67 +2035,67 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>373</v>
+        <v>71</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="14">
-        <v>42036</v>
+        <v>42063</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="11">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13">
-        <v>10220.879999999999</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="12">
+        <v>46.02</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>375</v>
+        <v>66</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="14">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="12">
-        <v>74.83</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="13">
-        <v>5220.88</v>
+      <c r="J9" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>374</v>
+        <v>60</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="14">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="12">
-        <v>22.38</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2096,19 +2107,19 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>370</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="14">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="12">
-        <v>52.45</v>
+        <v>47.86</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2120,91 +2131,91 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="14">
-        <v>42004</v>
+        <v>42036</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="12">
-        <v>51.92</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="13">
+        <v>10220.950000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="14">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="12">
-        <v>51.92</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="13">
-        <v>5146.05</v>
+        <v>5220.95</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="14">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="12">
-        <v>49.75</v>
+        <v>15.08</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="13">
-        <v>5094.13</v>
+      <c r="J14" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="12">
-        <v>49.75</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2216,73 +2227,217 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="14">
-        <v>41943</v>
+        <v>42035</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="12">
-        <v>44.38</v>
+        <v>52.45</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="13">
-        <v>5044.38</v>
+      <c r="J16" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>302</v>
+        <v>57</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="14">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="12">
-        <v>44.38</v>
+        <v>59.22</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="12">
-        <v>0</v>
+      <c r="J17" s="13">
+        <v>5153.3500000000004</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="14">
+        <v>42004</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="12">
+        <v>7.3</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>48</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14">
+        <v>42004</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="12">
+        <v>51.92</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>47</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="14">
+        <v>41973</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="12">
+        <v>49.75</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13">
+        <v>5094.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>46</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="14">
+        <v>41973</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="12">
+        <v>49.75</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>45</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="14">
+        <v>41943</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44.38</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="14">
+        <v>41943</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="12">
+        <v>44.38</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>43</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="14">
         <v>41917</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E24" s="11">
         <v>5000</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -2296,12 +2451,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2350,7 +2507,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
@@ -2381,7 +2538,7 @@
       </c>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
@@ -2412,7 +2569,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>45</v>
       </c>
@@ -2443,7 +2600,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
@@ -2476,10 +2633,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/15/waivecharge/38" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/38"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/15/waivecharge/46" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/46"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/15/waivecharge/54" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/54"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/15/waivecharge/62" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/62"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/3/waivecharge/5" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/5"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/3/waivecharge/6" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/6"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/3/waivecharge/7" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/7"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/3/waivecharge/8" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
